--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\RouterTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proj__Git\FireflyET7\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC470956-B4CB-4A69-8FC6-28509B4A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46016B5B-8DB8-4BC0-9997-3770F5B5468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="2025" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -63,14 +63,6 @@
   </si>
   <si>
     <t>游戏区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +459,7 @@
   <dimension ref="C2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -541,24 +533,14 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
